--- a/EBCLeague.xlsx
+++ b/EBCLeague.xlsx
@@ -28,7 +28,7 @@
     <t>Seigaku FC</t>
   </si>
   <si>
-    <t>Pitman Ford guy</t>
+    <t>Pitman MaleManipulator</t>
   </si>
   <si>
     <t>Abyss Diamond Eyes</t>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -892,7 +892,7 @@
         <v>4.5</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -909,7 +909,7 @@
         <v>3.125</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>-0.875</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -926,7 +926,7 @@
         <v>3.125</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>1.125</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -943,7 +943,7 @@
         <v>2.875</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>-0.125</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>2.25</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -977,7 +977,7 @@
         <v>1.75</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>0.75</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -994,7 +994,7 @@
         <v>1.375</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>0.375</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
